--- a/data/women/W_2022_10_Lazensky_pohar.xlsx
+++ b/data/women/W_2022_10_Lazensky_pohar.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8799A073-8412-4ADB-99B0-F90F8B21A501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E95371-447C-4ECE-A124-6EF0049BF99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12372" yWindow="-15012" windowWidth="19404" windowHeight="13836" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="-9372" windowWidth="23040" windowHeight="7716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="4" r:id="rId1"/>
-    <sheet name="first_round" sheetId="2" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="1" r:id="rId3"/>
-    <sheet name="pools" sheetId="3" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="5" r:id="rId5"/>
+    <sheet name="total" sheetId="6" r:id="rId1"/>
+    <sheet name="initiation" sheetId="4" r:id="rId2"/>
+    <sheet name="first_round" sheetId="2" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="1" r:id="rId4"/>
+    <sheet name="pools" sheetId="3" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$H$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">initiation!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$H$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">initiation!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,6 +41,17 @@
           <x15:modelTable id="Table016  Page 10_14a6ea9d-1828-40eb-93fe-0a828e13d331" name="Table016  Page 10" connection="Query - Table016 (Page 10)"/>
         </x15:modelTables>
       </x15:dataModel>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -76,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -359,6 +372,9 @@
   <si>
     <t>Eliminace_2</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
@@ -429,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -461,6 +477,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,11 +757,2455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F538C3E0-4B34-4B6C-A96E-0C68F4722774}">
+  <dimension ref="A1:Q83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P3" sqref="D3:P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1">
+        <v>38739</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0.33</v>
+      </c>
+      <c r="K2">
+        <v>19</v>
+      </c>
+      <c r="L2">
+        <v>26</v>
+      </c>
+      <c r="M2">
+        <v>-7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2">
+        <v>28</v>
+      </c>
+      <c r="P2">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="17">
+        <f>P2/MAX($P$2:$P$43)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>37414</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>27</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="17">
+        <f t="shared" ref="Q3:Q43" si="0">P3/MAX($P$2:$P$43)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>37371</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="17">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1">
+        <v>39194</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <v>22</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="17">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>36617</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0.67</v>
+      </c>
+      <c r="K6">
+        <v>22</v>
+      </c>
+      <c r="L6">
+        <v>16</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6">
+        <v>15</v>
+      </c>
+      <c r="P6">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.45238095238095238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1">
+        <v>32455</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.17</v>
+      </c>
+      <c r="K7">
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <v>28</v>
+      </c>
+      <c r="M7">
+        <v>-9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7">
+        <v>34</v>
+      </c>
+      <c r="P7">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.76190476190476186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>39589</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.17</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>28</v>
+      </c>
+      <c r="M8">
+        <v>-12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8">
+        <v>37</v>
+      </c>
+      <c r="P8">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="17">
+        <f t="shared" si="0"/>
+        <v>0.90476190476190477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1">
+        <v>33420</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.17</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>28</v>
+      </c>
+      <c r="M9">
+        <v>-8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9">
+        <v>33</v>
+      </c>
+      <c r="P9">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="17">
+        <f t="shared" si="0"/>
+        <v>0.73809523809523814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>71</v>
+      </c>
+      <c r="H10" s="1">
+        <v>32577</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0.33</v>
+      </c>
+      <c r="K10">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>-7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <v>31</v>
+      </c>
+      <c r="P10">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="17">
+        <f t="shared" si="0"/>
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1">
+        <v>37934</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="17">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>34902</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>0.67</v>
+      </c>
+      <c r="K12">
+        <v>26</v>
+      </c>
+      <c r="L12">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="17">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1">
+        <v>35537</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>0.83</v>
+      </c>
+      <c r="K13">
+        <v>27</v>
+      </c>
+      <c r="L13">
+        <v>18</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="17">
+        <f t="shared" si="0"/>
+        <v>0.40476190476190477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>36590</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>26</v>
+      </c>
+      <c r="L14">
+        <v>22</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14">
+        <v>18</v>
+      </c>
+      <c r="P14">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="17">
+        <f t="shared" si="0"/>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>36590</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>30</v>
+      </c>
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="17">
+        <f t="shared" si="0"/>
+        <v>0.11904761904761904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>35</v>
+      </c>
+      <c r="H16" s="1">
+        <v>39520</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>0.67</v>
+      </c>
+      <c r="K16">
+        <v>24</v>
+      </c>
+      <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="17">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>47</v>
+      </c>
+      <c r="H17" s="1">
+        <v>38660</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0.33</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>-11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17">
+        <v>32</v>
+      </c>
+      <c r="P17">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="17">
+        <f t="shared" si="0"/>
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1">
+        <v>36889</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K18">
+        <v>21</v>
+      </c>
+      <c r="L18">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <v>-3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18">
+        <v>21</v>
+      </c>
+      <c r="P18">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="17">
+        <f t="shared" si="0"/>
+        <v>0.54761904761904767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>38</v>
+      </c>
+      <c r="H19" s="1">
+        <v>26851</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>11</v>
+      </c>
+      <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>-19</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19">
+        <v>41</v>
+      </c>
+      <c r="P19">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>36091</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>0.67</v>
+      </c>
+      <c r="K20">
+        <v>27</v>
+      </c>
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <v>9</v>
+      </c>
+      <c r="N20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="17">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1">
+        <v>38680</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0.33</v>
+      </c>
+      <c r="K21">
+        <v>19</v>
+      </c>
+      <c r="L21">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <v>-7</v>
+      </c>
+      <c r="N21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21">
+        <v>28</v>
+      </c>
+      <c r="P21">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="17">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>39307</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.17</v>
+      </c>
+      <c r="K22">
+        <v>15</v>
+      </c>
+      <c r="L22">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <v>-11</v>
+      </c>
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22">
+        <v>36</v>
+      </c>
+      <c r="P22">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="17">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1">
+        <v>36557</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0.33</v>
+      </c>
+      <c r="K23">
+        <v>19</v>
+      </c>
+      <c r="L23">
+        <v>26</v>
+      </c>
+      <c r="M23">
+        <v>-7</v>
+      </c>
+      <c r="N23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23">
+        <v>28</v>
+      </c>
+      <c r="P23">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="17">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>56</v>
+      </c>
+      <c r="H24" s="1">
+        <v>38454</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.17</v>
+      </c>
+      <c r="K24">
+        <v>14</v>
+      </c>
+      <c r="L24">
+        <v>28</v>
+      </c>
+      <c r="M24">
+        <v>-14</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24">
+        <v>40</v>
+      </c>
+      <c r="P24">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="17">
+        <f t="shared" si="0"/>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>38</v>
+      </c>
+      <c r="H25" s="1">
+        <v>38901</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.17</v>
+      </c>
+      <c r="K25">
+        <v>12</v>
+      </c>
+      <c r="L25">
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>-17</v>
+      </c>
+      <c r="N25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25">
+        <v>41</v>
+      </c>
+      <c r="P25">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="17">
+        <f t="shared" si="0"/>
+        <v>0.97619047619047616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>33403</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>23</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>-1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>20</v>
+      </c>
+      <c r="P26">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>23</v>
+      </c>
+      <c r="H27" s="1">
+        <v>37401</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>0.5</v>
+      </c>
+      <c r="K27">
+        <v>21</v>
+      </c>
+      <c r="L27">
+        <v>27</v>
+      </c>
+      <c r="M27">
+        <v>-6</v>
+      </c>
+      <c r="N27" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27">
+        <v>22</v>
+      </c>
+      <c r="P27">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="17">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>33018</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>30</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>20</v>
+      </c>
+      <c r="N28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="17">
+        <f t="shared" si="0"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1">
+        <v>36310</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>0.67</v>
+      </c>
+      <c r="K29">
+        <v>26</v>
+      </c>
+      <c r="L29">
+        <v>14</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29">
+        <v>9</v>
+      </c>
+      <c r="P29">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>37444</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>0.33</v>
+      </c>
+      <c r="K30">
+        <v>23</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>-2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30">
+        <v>25</v>
+      </c>
+      <c r="P30">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="17">
+        <f t="shared" si="0"/>
+        <v>0.19047619047619047</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>36325</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31">
+        <v>13</v>
+      </c>
+      <c r="M31">
+        <v>14</v>
+      </c>
+      <c r="N31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="17">
+        <f t="shared" si="0"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+      <c r="H32" s="1">
+        <v>38983</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>0.33</v>
+      </c>
+      <c r="K32">
+        <v>22</v>
+      </c>
+      <c r="L32">
+        <v>23</v>
+      </c>
+      <c r="M32">
+        <v>-1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32">
+        <v>23</v>
+      </c>
+      <c r="P32">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="17">
+        <f t="shared" si="0"/>
+        <v>0.59523809523809523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33" s="1">
+        <v>35707</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>0.67</v>
+      </c>
+      <c r="K33">
+        <v>25</v>
+      </c>
+      <c r="L33">
+        <v>16</v>
+      </c>
+      <c r="M33">
+        <v>9</v>
+      </c>
+      <c r="N33" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33">
+        <v>11</v>
+      </c>
+      <c r="P33">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="17">
+        <f t="shared" si="0"/>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>26</v>
+      </c>
+      <c r="H34" s="1">
+        <v>38874</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0.33</v>
+      </c>
+      <c r="K34">
+        <v>21</v>
+      </c>
+      <c r="L34">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>-4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34">
+        <v>26</v>
+      </c>
+      <c r="P34">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="17">
+        <f t="shared" si="0"/>
+        <v>0.38095238095238093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>31</v>
+      </c>
+      <c r="H35" s="1">
+        <v>38458</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0.33</v>
+      </c>
+      <c r="K35">
+        <v>22</v>
+      </c>
+      <c r="L35">
+        <v>27</v>
+      </c>
+      <c r="M35">
+        <v>-5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35">
+        <v>27</v>
+      </c>
+      <c r="P35">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="17">
+        <f t="shared" si="0"/>
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="H36" s="1">
+        <v>36429</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>0.67</v>
+      </c>
+      <c r="K36">
+        <v>23</v>
+      </c>
+      <c r="L36">
+        <v>15</v>
+      </c>
+      <c r="M36">
+        <v>8</v>
+      </c>
+      <c r="N36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36">
+        <v>14</v>
+      </c>
+      <c r="P36">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="17">
+        <f t="shared" si="0"/>
+        <v>0.30952380952380953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>71</v>
+      </c>
+      <c r="H37" s="1">
+        <v>38913</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0.17</v>
+      </c>
+      <c r="K37">
+        <v>16</v>
+      </c>
+      <c r="L37">
+        <v>29</v>
+      </c>
+      <c r="M37">
+        <v>-13</v>
+      </c>
+      <c r="N37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37">
+        <v>39</v>
+      </c>
+      <c r="P37">
+        <v>39</v>
+      </c>
+      <c r="Q37" s="17">
+        <f t="shared" si="0"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="1">
+        <v>39243</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0.17</v>
+      </c>
+      <c r="K38">
+        <v>18</v>
+      </c>
+      <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38">
+        <v>-9</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38">
+        <v>35</v>
+      </c>
+      <c r="P38">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="17">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>26</v>
+      </c>
+      <c r="H39" s="1">
+        <v>38359</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0.17</v>
+      </c>
+      <c r="K39">
+        <v>16</v>
+      </c>
+      <c r="L39">
+        <v>28</v>
+      </c>
+      <c r="M39">
+        <v>-12</v>
+      </c>
+      <c r="N39" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39">
+        <v>37</v>
+      </c>
+      <c r="P39">
+        <v>37</v>
+      </c>
+      <c r="Q39" s="17">
+        <f t="shared" si="0"/>
+        <v>0.88095238095238093</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
+      <c r="H40" s="1">
+        <v>37171</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>0.83</v>
+      </c>
+      <c r="K40">
+        <v>26</v>
+      </c>
+      <c r="L40">
+        <v>17</v>
+      </c>
+      <c r="M40">
+        <v>9</v>
+      </c>
+      <c r="N40" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40">
+        <v>8</v>
+      </c>
+      <c r="P40">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="17">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>14</v>
+      </c>
+      <c r="H41" s="1">
+        <v>37441</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>0.67</v>
+      </c>
+      <c r="K41">
+        <v>23</v>
+      </c>
+      <c r="L41">
+        <v>23</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41">
+        <v>17</v>
+      </c>
+      <c r="P41">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="17">
+        <f t="shared" si="0"/>
+        <v>0.47619047619047616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>28</v>
+      </c>
+      <c r="H42" s="1">
+        <v>38143</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>0.33</v>
+      </c>
+      <c r="K42">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <v>21</v>
+      </c>
+      <c r="M42">
+        <v>-1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42">
+        <v>24</v>
+      </c>
+      <c r="P42">
+        <v>26</v>
+      </c>
+      <c r="Q42" s="17">
+        <f t="shared" si="0"/>
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+      <c r="H43" s="1">
+        <v>39056</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>0.67</v>
+      </c>
+      <c r="K43">
+        <v>28</v>
+      </c>
+      <c r="L43">
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>8</v>
+      </c>
+      <c r="N43" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43">
+        <v>12</v>
+      </c>
+      <c r="P43">
+        <v>11</v>
+      </c>
+      <c r="Q43" s="17">
+        <f t="shared" si="0"/>
+        <v>0.26190476190476192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{F538C3E0-4B34-4B6C-A96E-0C68F4722774}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B499F7CF-33A3-4BDB-8D78-9E4718C80A52}">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,50 +3434,47 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1">
-        <v>35537</v>
+        <v>34902</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1">
-        <v>36590</v>
+        <v>35537</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -1025,7 +3483,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
         <v>36590</v>
@@ -1033,127 +3491,130 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
       <c r="E15">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1">
-        <v>39520</v>
+        <v>36590</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1">
-        <v>38660</v>
+        <v>39520</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1">
-        <v>36889</v>
+        <v>38660</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="E18">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1">
-        <v>26851</v>
+        <v>36889</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>16</v>
-      </c>
       <c r="F19" s="1">
-        <v>36091</v>
+        <v>26851</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
       <c r="F20" s="1">
-        <v>38680</v>
+        <v>36091</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1162,149 +3623,146 @@
         <v>4</v>
       </c>
       <c r="F21" s="1">
-        <v>39307</v>
+        <v>38680</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="1">
-        <v>36557</v>
+        <v>39307</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
-      <c r="E23">
-        <v>56</v>
-      </c>
       <c r="F23" s="1">
-        <v>38454</v>
+        <v>36557</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1">
-        <v>38901</v>
+        <v>38454</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
+      <c r="E25">
+        <v>38</v>
+      </c>
       <c r="F25" s="1">
-        <v>33403</v>
+        <v>38901</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="E26">
-        <v>23</v>
-      </c>
       <c r="F26" s="1">
-        <v>37401</v>
+        <v>33403</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F27" s="1">
-        <v>33018</v>
+        <v>37401</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
       <c r="E28">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F28" s="1">
-        <v>36310</v>
+        <v>33018</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -1313,18 +3771,18 @@
         <v>4</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1">
-        <v>37444</v>
+        <v>36310</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -1333,18 +3791,18 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1">
-        <v>36325</v>
+        <v>37444</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -1353,78 +3811,78 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>38983</v>
+        <v>36325</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F32" s="1">
-        <v>35707</v>
+        <v>38983</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="E33">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F33" s="1">
-        <v>38874</v>
+        <v>35707</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
       <c r="E34">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F34" s="1">
-        <v>38458</v>
+        <v>38874</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -1433,179 +3891,186 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F35" s="1">
-        <v>36429</v>
+        <v>38458</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
       <c r="E36">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F36" s="1">
-        <v>38913</v>
+        <v>36429</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
+      <c r="E37">
+        <v>71</v>
+      </c>
       <c r="F37" s="1">
-        <v>39243</v>
+        <v>38913</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
-      <c r="E38">
-        <v>26</v>
-      </c>
       <c r="F38" s="1">
-        <v>38359</v>
+        <v>39243</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F39" s="1">
-        <v>37171</v>
+        <v>38359</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F40" s="1">
-        <v>37441</v>
+        <v>37171</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
       <c r="E41">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1">
-        <v>38143</v>
+        <v>37441</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F42" s="1">
-        <v>39056</v>
+        <v>38143</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
       </c>
       <c r="F43" s="1">
-        <v>34902</v>
+        <v>39056</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{B499F7CF-33A3-4BDB-8D78-9E4718C80A52}"/>
+  <autoFilter ref="A1:F1" xr:uid="{B499F7CF-33A3-4BDB-8D78-9E4718C80A52}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F43">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386D87D5-D02E-4FB7-9149-051B0619C02A}">
   <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="A1:M1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1659,31 +4124,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I2">
-        <v>21</v>
+        <v>-7</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -1700,13 +4165,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1718,13 +4183,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
@@ -1741,13 +4206,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -1759,13 +4224,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
@@ -1782,10 +4247,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1794,19 +4259,19 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5">
         <v>1</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
@@ -1823,31 +4288,31 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0.67</v>
+      </c>
+      <c r="G6">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
         <v>6</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>27</v>
-      </c>
-      <c r="H6">
-        <v>13</v>
-      </c>
-      <c r="I6">
-        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
@@ -1864,31 +4329,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>-9</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
@@ -1905,34 +4370,34 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I8">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="1">
         <v>44857</v>
@@ -1946,31 +4411,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>-8</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
@@ -1987,31 +4452,31 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I10">
-        <v>12</v>
+        <v>-7</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
@@ -2028,31 +4493,31 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
@@ -2069,16 +4534,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -2087,13 +4552,13 @@
         <v>0.67</v>
       </c>
       <c r="G12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
@@ -2110,31 +4575,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="G13">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
@@ -2151,31 +4616,31 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
@@ -2192,10 +4657,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -2204,19 +4669,19 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
@@ -2233,13 +4698,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -2251,13 +4716,13 @@
         <v>0.67</v>
       </c>
       <c r="G16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H16">
         <v>16</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
@@ -2274,31 +4739,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G17">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="J17" t="s">
         <v>24</v>
@@ -2315,10 +4780,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -2327,19 +4792,19 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
@@ -2356,34 +4821,34 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>-19</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" s="1">
         <v>44857</v>
@@ -2397,31 +4862,31 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="G20">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J20" t="s">
         <v>24</v>
@@ -2438,31 +4903,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G21">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="J21" t="s">
         <v>24</v>
@@ -2479,34 +4944,34 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I22">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K22" s="1">
         <v>44857</v>
@@ -2520,31 +4985,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G23">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="J23" t="s">
         <v>24</v>
@@ -2561,10 +5026,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -2573,22 +5038,22 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G24">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K24" s="1">
         <v>44857</v>
@@ -2602,34 +5067,34 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>-17</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" s="1">
         <v>44857</v>
@@ -2643,31 +5108,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G26">
         <v>23</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J26" t="s">
         <v>24</v>
@@ -2684,10 +5149,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -2696,19 +5161,19 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G27">
         <v>21</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I27">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="J27" t="s">
         <v>24</v>
@@ -2725,31 +5190,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s">
         <v>24</v>
@@ -2766,31 +5231,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>0.67</v>
+      </c>
+      <c r="G29">
+        <v>26</v>
+      </c>
+      <c r="H29">
+        <v>14</v>
+      </c>
+      <c r="I29">
         <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.33</v>
-      </c>
-      <c r="G29">
-        <v>19</v>
-      </c>
-      <c r="H29">
-        <v>26</v>
-      </c>
-      <c r="I29">
-        <v>-7</v>
       </c>
       <c r="J29" t="s">
         <v>24</v>
@@ -2807,13 +5272,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -2825,13 +5290,13 @@
         <v>0.33</v>
       </c>
       <c r="G30">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I30">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="J30" t="s">
         <v>24</v>
@@ -2848,31 +5313,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
       <c r="F31">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H31">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I31">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="J31" t="s">
         <v>24</v>
@@ -2889,13 +5354,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -2907,13 +5372,13 @@
         <v>0.33</v>
       </c>
       <c r="G32">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I32">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
@@ -2930,31 +5395,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="G33">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H33">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I33">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="J33" t="s">
         <v>24</v>
@@ -2971,31 +5436,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G34">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H34">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I34">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="J34" t="s">
         <v>24</v>
@@ -3012,31 +5477,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G35">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H35">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I35">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="J35" t="s">
         <v>24</v>
@@ -3053,34 +5518,34 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="G36">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H36">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I36">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="J36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K36" s="1">
         <v>44857</v>
@@ -3094,10 +5559,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -3112,13 +5577,13 @@
         <v>0.17</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H37">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I37">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="J37" t="s">
         <v>25</v>
@@ -3135,13 +5600,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -3153,13 +5618,13 @@
         <v>0.17</v>
       </c>
       <c r="G38">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H38">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I38">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="J38" t="s">
         <v>25</v>
@@ -3179,10 +5644,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -3217,34 +5682,34 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H40">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I40">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="J40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K40" s="1">
         <v>44857</v>
@@ -3258,34 +5723,34 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="G41">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H41">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I41">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K41" s="1">
         <v>44857</v>
@@ -3299,34 +5764,34 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G42">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H42">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I42">
-        <v>-17</v>
+        <v>-1</v>
       </c>
       <c r="J42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K42" s="1">
         <v>44857</v>
@@ -3340,34 +5805,34 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="G43">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H43">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I43">
-        <v>-19</v>
+        <v>8</v>
       </c>
       <c r="J43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K43" s="1">
         <v>44857</v>
@@ -3500,18 +5965,22 @@
       <c r="K83" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{386D87D5-D02E-4FB7-9149-051B0619C02A}"/>
+  <autoFilter ref="A1:M1" xr:uid="{386D87D5-D02E-4FB7-9149-051B0619C02A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M43">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3550,19 +6019,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>33018</v>
+        <v>38739</v>
       </c>
       <c r="F2" s="1">
         <v>44857</v>
@@ -3576,19 +6045,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>36325</v>
+        <v>37414</v>
       </c>
       <c r="F3" s="1">
         <v>44857</v>
@@ -3605,16 +6074,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>37414</v>
+        <v>37371</v>
       </c>
       <c r="F4" s="1">
         <v>44857</v>
@@ -3628,10 +6097,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -3640,7 +6109,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>37371</v>
+        <v>39194</v>
       </c>
       <c r="F5" s="1">
         <v>44857</v>
@@ -3654,19 +6123,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>36590</v>
+        <v>36617</v>
       </c>
       <c r="F6" s="1">
         <v>44857</v>
@@ -3680,19 +6149,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>37934</v>
+        <v>32455</v>
       </c>
       <c r="F7" s="1">
         <v>44857</v>
@@ -3706,19 +6175,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>36091</v>
+        <v>39589</v>
       </c>
       <c r="F8" s="1">
         <v>44857</v>
@@ -3732,19 +6201,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>37444</v>
+        <v>33420</v>
       </c>
       <c r="F9" s="1">
         <v>44857</v>
@@ -3758,19 +6227,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>36310</v>
+        <v>32577</v>
       </c>
       <c r="F10" s="1">
         <v>44857</v>
@@ -3784,19 +6253,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>35707</v>
+        <v>37934</v>
       </c>
       <c r="F11" s="1">
         <v>44857</v>
@@ -3810,19 +6279,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
-        <v>39056</v>
+        <v>34902</v>
       </c>
       <c r="F12" s="1">
         <v>44857</v>
@@ -3836,19 +6305,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="1">
-        <v>39520</v>
+        <v>35537</v>
       </c>
       <c r="F13" s="1">
         <v>44857</v>
@@ -3862,10 +6331,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -3874,7 +6343,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>36429</v>
+        <v>36590</v>
       </c>
       <c r="F14" s="1">
         <v>44857</v>
@@ -3888,19 +6357,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>34902</v>
+        <v>36590</v>
       </c>
       <c r="F15" s="1">
         <v>44857</v>
@@ -3914,19 +6383,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>36590</v>
+        <v>39520</v>
       </c>
       <c r="F16" s="1">
         <v>44857</v>
@@ -3940,19 +6409,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>38874</v>
+        <v>38660</v>
       </c>
       <c r="F17" s="1">
         <v>44857</v>
@@ -3966,19 +6435,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>35537</v>
+        <v>36889</v>
       </c>
       <c r="F18" s="1">
         <v>44857</v>
@@ -3992,19 +6461,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>37171</v>
+        <v>26851</v>
       </c>
       <c r="F19" s="1">
         <v>44857</v>
@@ -4018,19 +6487,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>36617</v>
+        <v>36091</v>
       </c>
       <c r="F20" s="1">
         <v>44857</v>
@@ -4044,19 +6513,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>37441</v>
+        <v>38680</v>
       </c>
       <c r="F21" s="1">
         <v>44857</v>
@@ -4070,19 +6539,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>39194</v>
+        <v>39307</v>
       </c>
       <c r="F22" s="1">
         <v>44857</v>
@@ -4096,19 +6565,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="1">
-        <v>33403</v>
+        <v>36557</v>
       </c>
       <c r="F23" s="1">
         <v>44857</v>
@@ -4122,19 +6591,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="1">
-        <v>36889</v>
+        <v>38454</v>
       </c>
       <c r="F24" s="1">
         <v>44857</v>
@@ -4148,19 +6617,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="1">
-        <v>37401</v>
+        <v>38901</v>
       </c>
       <c r="F25" s="1">
         <v>44857</v>
@@ -4174,19 +6643,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="1">
-        <v>38983</v>
+        <v>33403</v>
       </c>
       <c r="F26" s="1">
         <v>44857</v>
@@ -4200,19 +6669,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>38143</v>
+        <v>37401</v>
       </c>
       <c r="F27" s="1">
         <v>44857</v>
@@ -4226,19 +6695,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>38458</v>
+        <v>33018</v>
       </c>
       <c r="F28" s="1">
         <v>44857</v>
@@ -4252,19 +6721,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="1">
-        <v>36557</v>
+        <v>36310</v>
       </c>
       <c r="F29" s="1">
         <v>44857</v>
@@ -4278,19 +6747,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="1">
-        <v>38680</v>
+        <v>37444</v>
       </c>
       <c r="F30" s="1">
         <v>44857</v>
@@ -4304,19 +6773,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="1">
-        <v>38739</v>
+        <v>36325</v>
       </c>
       <c r="F31" s="1">
         <v>44857</v>
@@ -4330,19 +6799,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>33420</v>
+        <v>38983</v>
       </c>
       <c r="F32" s="1">
         <v>44857</v>
@@ -4356,19 +6825,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="1">
-        <v>32455</v>
+        <v>35707</v>
       </c>
       <c r="F33" s="1">
         <v>44857</v>
@@ -4382,19 +6851,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>32577</v>
+        <v>38874</v>
       </c>
       <c r="F34" s="1">
         <v>44857</v>
@@ -4408,19 +6877,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>38660</v>
+        <v>38458</v>
       </c>
       <c r="F35" s="1">
         <v>44857</v>
@@ -4434,19 +6903,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>39243</v>
+        <v>36429</v>
       </c>
       <c r="F36" s="1">
         <v>44857</v>
@@ -4460,10 +6929,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -4472,7 +6941,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="1">
-        <v>39307</v>
+        <v>38913</v>
       </c>
       <c r="F37" s="1">
         <v>44857</v>
@@ -4486,19 +6955,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>38359</v>
+        <v>39243</v>
       </c>
       <c r="F38" s="1">
         <v>44857</v>
@@ -4512,19 +6981,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
       <c r="E39" s="1">
-        <v>39589</v>
+        <v>38359</v>
       </c>
       <c r="F39" s="1">
         <v>44857</v>
@@ -4538,19 +7007,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="1">
-        <v>38913</v>
+        <v>37171</v>
       </c>
       <c r="F40" s="1">
         <v>44857</v>
@@ -4564,19 +7033,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="1">
-        <v>38454</v>
+        <v>37441</v>
       </c>
       <c r="F41" s="1">
         <v>44857</v>
@@ -4590,19 +7059,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="1">
-        <v>38901</v>
+        <v>38143</v>
       </c>
       <c r="F42" s="1">
         <v>44857</v>
@@ -4616,19 +7085,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
       <c r="E43" s="1">
-        <v>26851</v>
+        <v>39056</v>
       </c>
       <c r="F43" s="1">
         <v>44857</v>
@@ -4801,17 +7270,21 @@
       <c r="F83" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H43">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA992865-3F7B-49C4-B7FA-CAAC3EB267ED}">
   <dimension ref="A1:K254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -13691,7 +16164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C88E77C-F357-4543-A5CC-91BFEE3C45FA}">
   <dimension ref="A1:K68"/>
   <sheetViews>
